--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H2">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I2">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J2">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>481.774396559498</v>
+        <v>519.8509316666667</v>
       </c>
       <c r="N2">
-        <v>481.774396559498</v>
+        <v>1559.552795</v>
       </c>
       <c r="O2">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="P2">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="Q2">
-        <v>6484.962499179765</v>
+        <v>9786.189976384836</v>
       </c>
       <c r="R2">
-        <v>6484.962499179765</v>
+        <v>88075.70978746351</v>
       </c>
       <c r="S2">
-        <v>0.04709757846957283</v>
+        <v>0.0550862576707018</v>
       </c>
       <c r="T2">
-        <v>0.04709757846957283</v>
+        <v>0.05508625767070179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H3">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I3">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J3">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.03175139881424</v>
+        <v>1.259691</v>
       </c>
       <c r="N3">
-        <v>1.03175139881424</v>
+        <v>3.779073</v>
       </c>
       <c r="O3">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="P3">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="Q3">
-        <v>13.88797158497464</v>
+        <v>23.713673837266</v>
       </c>
       <c r="R3">
-        <v>13.88797158497464</v>
+        <v>213.423064535394</v>
       </c>
       <c r="S3">
-        <v>0.000100862546481845</v>
+        <v>0.0001334837715669587</v>
       </c>
       <c r="T3">
-        <v>0.000100862546481845</v>
+        <v>0.0001334837715669587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H4">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I4">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J4">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.9934337110147</v>
+        <v>75.63123766666666</v>
       </c>
       <c r="N4">
-        <v>62.9934337110147</v>
+        <v>226.893713</v>
       </c>
       <c r="O4">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="P4">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="Q4">
-        <v>847.9281137142099</v>
+        <v>1423.757494445924</v>
       </c>
       <c r="R4">
-        <v>847.9281137142099</v>
+        <v>12813.81745001331</v>
       </c>
       <c r="S4">
-        <v>0.006158148312694637</v>
+        <v>0.008014301008758258</v>
       </c>
       <c r="T4">
-        <v>0.006158148312694637</v>
+        <v>0.008014301008758256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H5">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I5">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J5">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.675602103342</v>
+        <v>53.174438</v>
       </c>
       <c r="N5">
-        <v>18.675602103342</v>
+        <v>159.523314</v>
       </c>
       <c r="O5">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="P5">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="Q5">
-        <v>251.3844242339656</v>
+        <v>1001.008405404121</v>
       </c>
       <c r="R5">
-        <v>251.3844242339656</v>
+        <v>9009.075648637092</v>
       </c>
       <c r="S5">
-        <v>0.001825700248518798</v>
+        <v>0.005634655272756105</v>
       </c>
       <c r="T5">
-        <v>0.001825700248518798</v>
+        <v>0.005634655272756104</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H6">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>481.774396559498</v>
+        <v>519.8509316666667</v>
       </c>
       <c r="N6">
-        <v>481.774396559498</v>
+        <v>1559.552795</v>
       </c>
       <c r="O6">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="P6">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="Q6">
-        <v>58196.73536438707</v>
+        <v>63328.70437594804</v>
       </c>
       <c r="R6">
-        <v>58196.73536438707</v>
+        <v>569958.3393835323</v>
       </c>
       <c r="S6">
-        <v>0.4226586215176824</v>
+        <v>0.356475945758606</v>
       </c>
       <c r="T6">
-        <v>0.4226586215176824</v>
+        <v>0.3564759457586059</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H7">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.03175139881424</v>
+        <v>1.259691</v>
       </c>
       <c r="N7">
-        <v>1.03175139881424</v>
+        <v>3.779073</v>
       </c>
       <c r="O7">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="P7">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="Q7">
-        <v>124.6321173300731</v>
+        <v>153.456681684269</v>
       </c>
       <c r="R7">
-        <v>124.6321173300731</v>
+        <v>1381.110135158421</v>
       </c>
       <c r="S7">
-        <v>0.000905151097870583</v>
+        <v>0.000863804435531028</v>
       </c>
       <c r="T7">
-        <v>0.000905151097870583</v>
+        <v>0.000863804435531028</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H8">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.9934337110147</v>
+        <v>75.63123766666666</v>
       </c>
       <c r="N8">
-        <v>62.9934337110147</v>
+        <v>226.893713</v>
       </c>
       <c r="O8">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="P8">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="Q8">
-        <v>7609.396052497029</v>
+        <v>9213.464860827746</v>
       </c>
       <c r="R8">
-        <v>7609.396052497029</v>
+        <v>82921.1837474497</v>
       </c>
       <c r="S8">
-        <v>0.05526387049020961</v>
+        <v>0.05186240003395121</v>
       </c>
       <c r="T8">
-        <v>0.05526387049020961</v>
+        <v>0.05186240003395121</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H9">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.675602103342</v>
+        <v>53.174438</v>
       </c>
       <c r="N9">
-        <v>18.675602103342</v>
+        <v>159.523314</v>
       </c>
       <c r="O9">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="P9">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="Q9">
-        <v>2255.950256261824</v>
+        <v>6477.75748648351</v>
       </c>
       <c r="R9">
-        <v>2255.950256261824</v>
+        <v>58299.81737835158</v>
       </c>
       <c r="S9">
-        <v>0.01638402600341682</v>
+        <v>0.03646316072851966</v>
       </c>
       <c r="T9">
-        <v>0.01638402600341682</v>
+        <v>0.03646316072851966</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H10">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>481.774396559498</v>
+        <v>519.8509316666667</v>
       </c>
       <c r="N10">
-        <v>481.774396559498</v>
+        <v>1559.552795</v>
       </c>
       <c r="O10">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="P10">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="Q10">
-        <v>35571.67278003946</v>
+        <v>45577.1948448067</v>
       </c>
       <c r="R10">
-        <v>35571.67278003946</v>
+        <v>410194.7536032603</v>
       </c>
       <c r="S10">
-        <v>0.2583422263835415</v>
+        <v>0.2565530717457301</v>
       </c>
       <c r="T10">
-        <v>0.2583422263835415</v>
+        <v>0.2565530717457301</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H11">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.03175139881424</v>
+        <v>1.259691</v>
       </c>
       <c r="N11">
-        <v>1.03175139881424</v>
+        <v>3.779073</v>
       </c>
       <c r="O11">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="P11">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="Q11">
-        <v>76.17906516216379</v>
+        <v>110.441625962235</v>
       </c>
       <c r="R11">
-        <v>76.17906516216379</v>
+        <v>993.974633660115</v>
       </c>
       <c r="S11">
-        <v>0.0005532567843942832</v>
+        <v>0.0006216735910510496</v>
       </c>
       <c r="T11">
-        <v>0.0005532567843942832</v>
+        <v>0.0006216735910510495</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H12">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.9934337110147</v>
+        <v>75.63123766666666</v>
       </c>
       <c r="N12">
-        <v>62.9934337110147</v>
+        <v>226.893713</v>
       </c>
       <c r="O12">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="P12">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="Q12">
-        <v>4651.101900103964</v>
+        <v>6630.861744223702</v>
       </c>
       <c r="R12">
-        <v>4651.101900103964</v>
+        <v>59677.75569801332</v>
       </c>
       <c r="S12">
-        <v>0.03377901363929745</v>
+        <v>0.03732498137707745</v>
       </c>
       <c r="T12">
-        <v>0.03377901363929745</v>
+        <v>0.03732498137707745</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H13">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.675602103342</v>
+        <v>53.174438</v>
       </c>
       <c r="N13">
-        <v>18.675602103342</v>
+        <v>159.523314</v>
       </c>
       <c r="O13">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="P13">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="Q13">
-        <v>1378.907662454528</v>
+        <v>4661.993609820231</v>
       </c>
       <c r="R13">
-        <v>1378.907662454528</v>
+        <v>41957.94248838207</v>
       </c>
       <c r="S13">
-        <v>0.01001443136224174</v>
+        <v>0.0262422640342603</v>
       </c>
       <c r="T13">
-        <v>0.01001443136224174</v>
+        <v>0.0262422640342603</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H14">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>481.774396559498</v>
+        <v>519.8509316666667</v>
       </c>
       <c r="N14">
-        <v>481.774396559498</v>
+        <v>1559.552795</v>
       </c>
       <c r="O14">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="P14">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="Q14">
-        <v>17265.53893515086</v>
+        <v>23407.15617606391</v>
       </c>
       <c r="R14">
-        <v>17265.53893515086</v>
+        <v>210664.4055845751</v>
       </c>
       <c r="S14">
-        <v>0.1253924097356899</v>
+        <v>0.1317583900950739</v>
       </c>
       <c r="T14">
-        <v>0.1253924097356899</v>
+        <v>0.1317583900950739</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H15">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.03175139881424</v>
+        <v>1.259691</v>
       </c>
       <c r="N15">
-        <v>1.03175139881424</v>
+        <v>3.779073</v>
       </c>
       <c r="O15">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="P15">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="Q15">
-        <v>36.975281531848</v>
+        <v>56.71969053907299</v>
       </c>
       <c r="R15">
-        <v>36.975281531848</v>
+        <v>510.4772148516569</v>
       </c>
       <c r="S15">
-        <v>0.0002685360514576639</v>
+        <v>0.0003192739457927496</v>
       </c>
       <c r="T15">
-        <v>0.0002685360514576639</v>
+        <v>0.0003192739457927496</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H16">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.9934337110147</v>
+        <v>75.63123766666666</v>
       </c>
       <c r="N16">
-        <v>62.9934337110147</v>
+        <v>226.893713</v>
       </c>
       <c r="O16">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="P16">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="Q16">
-        <v>2257.520512014281</v>
+        <v>3405.422754898157</v>
       </c>
       <c r="R16">
-        <v>2257.520512014281</v>
+        <v>30648.80479408341</v>
       </c>
       <c r="S16">
-        <v>0.01639543011616658</v>
+        <v>0.01916905310510744</v>
       </c>
       <c r="T16">
-        <v>0.01639543011616658</v>
+        <v>0.01916905310510744</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H17">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.675602103342</v>
+        <v>53.174438</v>
       </c>
       <c r="N17">
-        <v>18.675602103342</v>
+        <v>159.523314</v>
       </c>
       <c r="O17">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="P17">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="Q17">
-        <v>669.2849133439069</v>
+        <v>2394.267854536647</v>
       </c>
       <c r="R17">
-        <v>669.2849133439069</v>
+        <v>21548.41069082982</v>
       </c>
       <c r="S17">
-        <v>0.004860737240763204</v>
+        <v>0.0134772834255162</v>
       </c>
       <c r="T17">
-        <v>0.004860737240763204</v>
+        <v>0.0134772834255162</v>
       </c>
     </row>
   </sheetData>
